--- a/бд1.xlsx
+++ b/бд1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мартин Банда\Desktop\для дз\ДЗбд1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA0F36C-D7D9-441A-9BE9-9BA9F91A66E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC8038E-BD3D-48DA-94F4-736EAB32C707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Задача:</t>
   </si>
@@ -129,20 +129,71 @@
     <t>Сенкевичкова ТТ</t>
   </si>
   <si>
-    <t>Коллектив можно заменять в случае болезни или отпуска работником из такого же района города</t>
-  </si>
-  <si>
-    <t>С</t>
-  </si>
-  <si>
     <t>Маршрут выступает id</t>
+  </si>
+  <si>
+    <t>Адреса маршрутов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">начало </t>
+  </si>
+  <si>
+    <t>конец</t>
+  </si>
+  <si>
+    <t>Ленина</t>
+  </si>
+  <si>
+    <t>Сталина</t>
+  </si>
+  <si>
+    <t>Петра 1</t>
+  </si>
+  <si>
+    <t>автобусная</t>
+  </si>
+  <si>
+    <t>троллебусная</t>
+  </si>
+  <si>
+    <t>трамвайная</t>
+  </si>
+  <si>
+    <t>железнодорожная</t>
+  </si>
+  <si>
+    <t>дачная</t>
+  </si>
+  <si>
+    <t>пятиэтажная</t>
+  </si>
+  <si>
+    <t>частная</t>
+  </si>
+  <si>
+    <t>муниципальная</t>
+  </si>
+  <si>
+    <t>китайская</t>
+  </si>
+  <si>
+    <t>корейская</t>
+  </si>
+  <si>
+    <t>дальневосточная</t>
+  </si>
+  <si>
+    <t>чукотская</t>
+  </si>
+  <si>
+    <t>Коллектив можно заменять в случае болезни или отпуска работником из такого же района города либо смежные</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,16 +208,44 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -277,20 +356,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -571,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,9 +746,11 @@
     <col min="3" max="3" width="17.08984375" customWidth="1"/>
     <col min="6" max="6" width="15.90625" customWidth="1"/>
     <col min="7" max="7" width="18.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -601,188 +766,269 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+      <c r="K11" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="15">
+        <v>2</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="18">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="14">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="15">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17">
+        <v>6</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="15">
+        <v>6</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="14">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14">
         <v>7</v>
       </c>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="14">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="15">
         <v>8</v>
       </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="15">
         <v>8</v>
       </c>
-      <c r="E14" s="6">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6">
-        <v>6</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6">
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="15">
         <v>8</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6">
-        <v>8</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>29</v>
+      <c r="J19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
